--- a/data/99. analyzes/excel/2017_top_5_by_canton_hcp.xlsx
+++ b/data/99. analyzes/excel/2017_top_5_by_canton_hcp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="347">
   <si>
     <t>KANTON</t>
   </si>
@@ -140,7 +140,7 @@
     <t>rehetobel</t>
   </si>
   <si>
-    <t>Sankt Gallerstrasse 11</t>
+    <t>St. Gallerstrasse 11</t>
   </si>
   <si>
     <t>Artur Bernardo</t>
@@ -185,25 +185,25 @@
     <t>Freiburgstrasse 4</t>
   </si>
   <si>
+    <t>Nikhil Yawalkar</t>
+  </si>
+  <si>
+    <t>Freiburgstrasse 18</t>
+  </si>
+  <si>
+    <t>Franz Messerli</t>
+  </si>
+  <si>
+    <t>Inselspital Universitäsklinik für Kardiologie Freiburgstrasse 4</t>
+  </si>
+  <si>
     <t>Robert Emil Hunger</t>
   </si>
   <si>
-    <t>Freiburgstrasse 18</t>
-  </si>
-  <si>
-    <t>Nikhil Yawalkar</t>
-  </si>
-  <si>
-    <t>Franz Messerli</t>
-  </si>
-  <si>
-    <t>Inselspital Universitäsklinik für Kardiologie Freiburgstrasse 4</t>
-  </si>
-  <si>
-    <t>Gregor Hasler</t>
-  </si>
-  <si>
-    <t>Universitätsklinik für Psychiatrie und Psychotherapie, Bolligenstrasse 111</t>
+    <t>Frank Werner Seibold</t>
+  </si>
+  <si>
+    <t>Bremgartenstrasse 119</t>
   </si>
   <si>
     <t>BL</t>
@@ -242,10 +242,13 @@
     <t>Brennerstrasse 12</t>
   </si>
   <si>
-    <t>Walo Alexander Iseli</t>
-  </si>
-  <si>
-    <t>Weierweg 7</t>
+    <t>Ioannis Papadopoulos</t>
+  </si>
+  <si>
+    <t>münchenstein</t>
+  </si>
+  <si>
+    <t>Reinacherstrasse 28</t>
   </si>
   <si>
     <t>BS</t>
@@ -332,7 +335,7 @@
     <t>fribourg</t>
   </si>
   <si>
-    <t>Chemin des Pensionnats 2-6</t>
+    <t>Chemin des Pensionnats 2</t>
   </si>
   <si>
     <t>Bernard Waeber</t>
@@ -341,7 +344,7 @@
     <t>marly</t>
   </si>
   <si>
-    <t>Route des Mouettes 20</t>
+    <t>Rte Mouettes 20</t>
   </si>
   <si>
     <t>Hatem Ksouri</t>
@@ -605,7 +608,7 @@
     <t>obbürgen</t>
   </si>
   <si>
-    <t>Bürgenstock 30</t>
+    <t>FMH Dermatology and Venerology "Medical Center" in the Waldhotel, Health &amp; Medical Excellence,Bürgenst ock Hotels AG Guarantor's stick 30</t>
   </si>
   <si>
     <t>Michael Oswald</t>
@@ -620,9 +623,6 @@
     <t>Helge Hoffmann</t>
   </si>
   <si>
-    <t>bürgenstock</t>
-  </si>
-  <si>
     <t>Martin Sykora</t>
   </si>
   <si>
@@ -632,6 +632,15 @@
     <t>Ennetmooserstrasse 19</t>
   </si>
   <si>
+    <t>Dagmar Heidrun Becker</t>
+  </si>
+  <si>
+    <t>beckenried</t>
+  </si>
+  <si>
+    <t>Mondmattli 3</t>
+  </si>
+  <si>
     <t>OW</t>
   </si>
   <si>
@@ -767,7 +776,7 @@
     <t>Beat Nick</t>
   </si>
   <si>
-    <t>Weissensteinstrasse 102</t>
+    <t>Behandlungszentrum für Psychosen Psychiatrische Dienste, Weissensteinstrasse 102</t>
   </si>
   <si>
     <t>Thomas Eduard Schmid</t>
@@ -794,7 +803,7 @@
     <t>schwyz</t>
   </si>
   <si>
-    <t>Neurologische Praxis Schwyz Schwyz Maria-Hilf-Strasse 9</t>
+    <t>Maria-Hilf-Strasse 9</t>
   </si>
   <si>
     <t>Beate Theresia Maria Gleissner</t>
@@ -926,13 +935,13 @@
     <t>Route du Muids 3</t>
   </si>
   <si>
-    <t>Christian Felley</t>
+    <t>Pierre Michetti</t>
   </si>
   <si>
     <t>lausanne</t>
   </si>
   <si>
-    <t>Centre de Gastroentérologie, Avenue Jomini 8</t>
+    <t>Centre de Gastroentérologie Beaulieu S.A, Avenue Jomini 8</t>
   </si>
   <si>
     <t>Jean-Francois Lambert</t>
@@ -965,7 +974,7 @@
     <t>sierre</t>
   </si>
   <si>
-    <t>Route de Sion 31</t>
+    <t>Route De Sion 31</t>
   </si>
   <si>
     <t>Daniel Teta</t>
@@ -2208,19 +2217,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>763</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2151.05</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>13100</v>
+        <v>15525</v>
       </c>
       <c r="M17" t="n">
-        <v>120.61</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>16134.66</v>
+        <v>15525</v>
       </c>
       <c r="O17" t="s">
         <v>54</v>
@@ -2241,7 +2250,7 @@
         <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2259,16 +2268,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>6734.1</v>
       </c>
       <c r="L18" t="n">
-        <v>15525</v>
+        <v>7338.9</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1191.5</v>
       </c>
       <c r="N18" t="n">
-        <v>15525</v>
+        <v>15264.5</v>
       </c>
       <c r="O18" t="s">
         <v>54</v>
@@ -2280,16 +2289,16 @@
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -2304,19 +2313,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="K19" t="n">
-        <v>6734.1</v>
+        <v>1369.05</v>
       </c>
       <c r="L19" t="n">
-        <v>7338.9</v>
+        <v>13100</v>
       </c>
       <c r="M19" t="n">
-        <v>1191.5</v>
+        <v>120.61</v>
       </c>
       <c r="N19" t="n">
-        <v>15264.5</v>
+        <v>14923.66</v>
       </c>
       <c r="O19" t="s">
         <v>54</v>
@@ -2352,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>399.41</v>
       </c>
       <c r="K20" t="n">
-        <v>1210</v>
+        <v>7867.07</v>
       </c>
       <c r="L20" t="n">
-        <v>11600</v>
+        <v>5750</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>12810</v>
+        <v>14016.48</v>
       </c>
       <c r="O20" t="s">
         <v>54</v>
@@ -2576,40 +2585,40 @@
         <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1013.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1302.97</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1900</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4217.37</v>
+      </c>
+      <c r="O25" t="s">
         <v>76</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2017</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1149.51</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1301.1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1600</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>4050.61</v>
-      </c>
-      <c r="O25" t="s">
-        <v>68</v>
       </c>
       <c r="P25" t="s">
         <v>63</v>
@@ -2617,19 +2626,19 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
@@ -2659,25 +2668,25 @@
         <v>54657.94</v>
       </c>
       <c r="O26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -2707,25 +2716,25 @@
         <v>41122.52</v>
       </c>
       <c r="O27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -2755,25 +2764,25 @@
         <v>29951.8</v>
       </c>
       <c r="O28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
         <v>85</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" t="s">
-        <v>84</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -2803,25 +2812,25 @@
         <v>20572.65</v>
       </c>
       <c r="O29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
@@ -2851,27 +2860,27 @@
         <v>18954.67</v>
       </c>
       <c r="O30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -2901,25 +2910,25 @@
         <v>3100</v>
       </c>
       <c r="O31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -2949,25 +2958,25 @@
         <v>2039</v>
       </c>
       <c r="O32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -2997,25 +3006,25 @@
         <v>1858.51</v>
       </c>
       <c r="O33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -3045,25 +3054,25 @@
         <v>1844</v>
       </c>
       <c r="O34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -3093,27 +3102,27 @@
         <v>1627</v>
       </c>
       <c r="O35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
         <v>18</v>
@@ -3143,25 +3152,25 @@
         <v>36845.1</v>
       </c>
       <c r="O36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
@@ -3191,25 +3200,25 @@
         <v>10740.4</v>
       </c>
       <c r="O37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
@@ -3239,25 +3248,25 @@
         <v>9307</v>
       </c>
       <c r="O38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
@@ -3287,25 +3296,25 @@
         <v>8479</v>
       </c>
       <c r="O39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
@@ -3335,27 +3344,27 @@
         <v>5687</v>
       </c>
       <c r="O40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
@@ -3385,25 +3394,25 @@
         <v>65881.16</v>
       </c>
       <c r="O41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" t="s">
         <v>121</v>
-      </c>
-      <c r="C42" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" t="s">
-        <v>120</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
@@ -3433,25 +3442,25 @@
         <v>39239.48</v>
       </c>
       <c r="O42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
@@ -3481,25 +3490,25 @@
         <v>25905.65</v>
       </c>
       <c r="O43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
@@ -3529,25 +3538,25 @@
         <v>19220</v>
       </c>
       <c r="O44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
@@ -3577,27 +3586,27 @@
         <v>17715.3</v>
       </c>
       <c r="O45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F46" t="s">
         <v>18</v>
@@ -3627,25 +3636,25 @@
         <v>3792.53</v>
       </c>
       <c r="O46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
@@ -3675,25 +3684,25 @@
         <v>2200</v>
       </c>
       <c r="O47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F48" t="s">
         <v>18</v>
@@ -3723,25 +3732,25 @@
         <v>1690.89</v>
       </c>
       <c r="O48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F49" t="s">
         <v>18</v>
@@ -3771,25 +3780,25 @@
         <v>1596.44</v>
       </c>
       <c r="O49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
@@ -3819,27 +3828,27 @@
         <v>1207.37</v>
       </c>
       <c r="O50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F51" t="s">
         <v>18</v>
@@ -3869,25 +3878,25 @@
         <v>10854.78</v>
       </c>
       <c r="O51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
@@ -3917,25 +3926,25 @@
         <v>6124.65</v>
       </c>
       <c r="O52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F53" t="s">
         <v>18</v>
@@ -3965,25 +3974,25 @@
         <v>4687.35</v>
       </c>
       <c r="O53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P53" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F54" t="s">
         <v>18</v>
@@ -4013,25 +4022,25 @@
         <v>4554.91</v>
       </c>
       <c r="O54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F55" t="s">
         <v>18</v>
@@ -4061,27 +4070,27 @@
         <v>3500</v>
       </c>
       <c r="O55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P55" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F56" t="s">
         <v>18</v>
@@ -4111,25 +4120,25 @@
         <v>16866.66</v>
       </c>
       <c r="O56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F57" t="s">
         <v>18</v>
@@ -4159,25 +4168,25 @@
         <v>9275.92</v>
       </c>
       <c r="O57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F58" t="s">
         <v>18</v>
@@ -4207,25 +4216,25 @@
         <v>4486</v>
       </c>
       <c r="O58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F59" t="s">
         <v>18</v>
@@ -4255,25 +4264,25 @@
         <v>3365.19</v>
       </c>
       <c r="O59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F60" t="s">
         <v>18</v>
@@ -4303,27 +4312,27 @@
         <v>3000</v>
       </c>
       <c r="O60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F61" t="s">
         <v>18</v>
@@ -4353,25 +4362,25 @@
         <v>12500</v>
       </c>
       <c r="O61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F62" t="s">
         <v>18</v>
@@ -4401,25 +4410,25 @@
         <v>7986.8</v>
       </c>
       <c r="O62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E63" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F63" t="s">
         <v>18</v>
@@ -4449,25 +4458,25 @@
         <v>4846.85</v>
       </c>
       <c r="O63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F64" t="s">
         <v>18</v>
@@ -4497,25 +4506,25 @@
         <v>4444</v>
       </c>
       <c r="O64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F65" t="s">
         <v>18</v>
@@ -4545,27 +4554,27 @@
         <v>4232.75</v>
       </c>
       <c r="O65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -4595,25 +4604,25 @@
         <v>16051.09</v>
       </c>
       <c r="O66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
@@ -4643,25 +4652,25 @@
         <v>7712.69</v>
       </c>
       <c r="O67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F68" t="s">
         <v>18</v>
@@ -4691,25 +4700,25 @@
         <v>4461.2</v>
       </c>
       <c r="O68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E69" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
@@ -4739,25 +4748,25 @@
         <v>4317.280000000002</v>
       </c>
       <c r="O69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" t="s">
+        <v>185</v>
+      </c>
+      <c r="E70" t="s">
         <v>192</v>
-      </c>
-      <c r="C70" t="s">
-        <v>192</v>
-      </c>
-      <c r="D70" t="s">
-        <v>184</v>
-      </c>
-      <c r="E70" t="s">
-        <v>191</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -4787,75 +4796,75 @@
         <v>4037</v>
       </c>
       <c r="O70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P70" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" t="s">
+        <v>196</v>
+      </c>
+      <c r="E71" t="s">
+        <v>197</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>758.8199999999998</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1552.53</v>
+      </c>
+      <c r="L71" t="n">
+        <v>8925</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1071.41</v>
+      </c>
+      <c r="N71" t="n">
+        <v>12307.76</v>
+      </c>
+      <c r="O71" t="s">
+        <v>196</v>
+      </c>
+      <c r="P71" t="s">
         <v>194</v>
-      </c>
-      <c r="C71" t="s">
-        <v>194</v>
-      </c>
-      <c r="D71" t="s">
-        <v>195</v>
-      </c>
-      <c r="E71" t="s">
-        <v>196</v>
-      </c>
-      <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="n">
-        <v>2017</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>163.17</v>
-      </c>
-      <c r="K71" t="n">
-        <v>1151.74</v>
-      </c>
-      <c r="L71" t="n">
-        <v>8425</v>
-      </c>
-      <c r="M71" t="n">
-        <v>837.4</v>
-      </c>
-      <c r="N71" t="n">
-        <v>10577.31</v>
-      </c>
-      <c r="O71" t="s">
-        <v>195</v>
-      </c>
-      <c r="P71" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C72" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D72" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -4885,25 +4894,25 @@
         <v>4540</v>
       </c>
       <c r="O72" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" t="s">
+        <v>199</v>
+      </c>
+      <c r="E73" t="s">
         <v>200</v>
-      </c>
-      <c r="C73" t="s">
-        <v>200</v>
-      </c>
-      <c r="D73" t="s">
-        <v>198</v>
-      </c>
-      <c r="E73" t="s">
-        <v>199</v>
       </c>
       <c r="F73" t="s">
         <v>18</v>
@@ -4933,73 +4942,73 @@
         <v>2386</v>
       </c>
       <c r="O73" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1" t="n"/>
       <c r="B74" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" t="s">
+        <v>203</v>
+      </c>
+      <c r="E74" t="s">
+        <v>204</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O74" t="s">
+        <v>203</v>
+      </c>
+      <c r="P74" t="s">
         <v>194</v>
-      </c>
-      <c r="C74" t="s">
-        <v>194</v>
-      </c>
-      <c r="D74" t="s">
-        <v>201</v>
-      </c>
-      <c r="E74" t="s">
-        <v>196</v>
-      </c>
-      <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="n">
-        <v>2017</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>595.65</v>
-      </c>
-      <c r="K74" t="n">
-        <v>400.79</v>
-      </c>
-      <c r="L74" t="n">
-        <v>500</v>
-      </c>
-      <c r="M74" t="n">
-        <v>234.01</v>
-      </c>
-      <c r="N74" t="n">
-        <v>1730.45</v>
-      </c>
-      <c r="O74" t="s">
-        <v>201</v>
-      </c>
-      <c r="P74" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D75" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E75" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F75" t="s">
         <v>18</v>
@@ -5014,42 +5023,42 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>330.6</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>501.5</v>
       </c>
       <c r="L75" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1000</v>
+        <v>832.1</v>
       </c>
       <c r="O75" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D76" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E76" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F76" t="s">
         <v>18</v>
@@ -5079,25 +5088,25 @@
         <v>3492.24</v>
       </c>
       <c r="O76" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C77" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D77" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E77" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F77" t="s">
         <v>18</v>
@@ -5127,25 +5136,25 @@
         <v>1370</v>
       </c>
       <c r="O77" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1" t="n"/>
       <c r="B78" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" t="s">
+        <v>213</v>
+      </c>
+      <c r="D78" t="s">
         <v>210</v>
       </c>
-      <c r="C78" t="s">
-        <v>210</v>
-      </c>
-      <c r="D78" t="s">
-        <v>207</v>
-      </c>
       <c r="E78" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F78" t="s">
         <v>18</v>
@@ -5175,25 +5184,25 @@
         <v>722</v>
       </c>
       <c r="O78" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1" t="n"/>
       <c r="B79" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C79" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D79" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E79" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F79" t="s">
         <v>18</v>
@@ -5223,25 +5232,25 @@
         <v>704.8200000000001</v>
       </c>
       <c r="O79" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P79" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C80" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D80" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E80" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F80" t="s">
         <v>18</v>
@@ -5271,27 +5280,27 @@
         <v>405</v>
       </c>
       <c r="O80" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C81" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D81" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E81" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F81" t="s">
         <v>18</v>
@@ -5321,25 +5330,25 @@
         <v>15458.05</v>
       </c>
       <c r="O81" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P81" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1" t="n"/>
       <c r="B82" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C82" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D82" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E82" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F82" t="s">
         <v>18</v>
@@ -5369,25 +5378,25 @@
         <v>11116</v>
       </c>
       <c r="O82" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1" t="n"/>
       <c r="B83" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C83" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D83" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E83" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F83" t="s">
         <v>18</v>
@@ -5417,25 +5426,25 @@
         <v>8815.41</v>
       </c>
       <c r="O83" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1" t="n"/>
       <c r="B84" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C84" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D84" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E84" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F84" t="s">
         <v>18</v>
@@ -5465,25 +5474,25 @@
         <v>8169.84</v>
       </c>
       <c r="O84" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1" t="n"/>
       <c r="B85" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C85" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D85" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E85" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F85" t="s">
         <v>18</v>
@@ -5513,27 +5522,27 @@
         <v>7519</v>
       </c>
       <c r="O85" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C86" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D86" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E86" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
@@ -5563,25 +5572,25 @@
         <v>4985.62</v>
       </c>
       <c r="O86" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1" t="n"/>
       <c r="B87" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C87" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D87" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E87" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F87" t="s">
         <v>18</v>
@@ -5611,25 +5620,25 @@
         <v>3782.15</v>
       </c>
       <c r="O87" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1" t="n"/>
       <c r="B88" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C88" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D88" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E88" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F88" t="s">
         <v>18</v>
@@ -5659,25 +5668,25 @@
         <v>3059.4</v>
       </c>
       <c r="O88" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1" t="n"/>
       <c r="B89" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C89" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D89" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E89" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F89" t="s">
         <v>18</v>
@@ -5707,25 +5716,25 @@
         <v>2827.43</v>
       </c>
       <c r="O89" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P89" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1" t="n"/>
       <c r="B90" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C90" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D90" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E90" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F90" t="s">
         <v>18</v>
@@ -5755,27 +5764,27 @@
         <v>2800</v>
       </c>
       <c r="O90" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C91" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D91" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E91" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F91" t="s">
         <v>18</v>
@@ -5805,25 +5814,25 @@
         <v>13851.89</v>
       </c>
       <c r="O91" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1" t="n"/>
       <c r="B92" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C92" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D92" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E92" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F92" t="s">
         <v>18</v>
@@ -5853,25 +5862,25 @@
         <v>7962.59</v>
       </c>
       <c r="O92" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1" t="n"/>
       <c r="B93" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C93" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D93" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F93" t="s">
         <v>18</v>
@@ -5901,25 +5910,25 @@
         <v>5500</v>
       </c>
       <c r="O93" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P93" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1" t="n"/>
       <c r="B94" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C94" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D94" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E94" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F94" t="s">
         <v>18</v>
@@ -5949,25 +5958,25 @@
         <v>4900</v>
       </c>
       <c r="O94" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P94" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1" t="n"/>
       <c r="B95" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C95" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D95" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E95" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F95" t="s">
         <v>18</v>
@@ -5997,27 +6006,27 @@
         <v>4541.07</v>
       </c>
       <c r="O95" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C96" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D96" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E96" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
@@ -6047,25 +6056,25 @@
         <v>4628.41</v>
       </c>
       <c r="O96" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P96" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1" t="n"/>
       <c r="B97" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C97" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D97" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E97" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F97" t="s">
         <v>18</v>
@@ -6095,25 +6104,25 @@
         <v>3640.94</v>
       </c>
       <c r="O97" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P97" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1" t="n"/>
       <c r="B98" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C98" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D98" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E98" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F98" t="s">
         <v>18</v>
@@ -6143,25 +6152,25 @@
         <v>3623</v>
       </c>
       <c r="O98" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P98" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1" t="n"/>
       <c r="B99" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C99" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D99" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E99" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F99" t="s">
         <v>18</v>
@@ -6191,25 +6200,25 @@
         <v>3057.35</v>
       </c>
       <c r="O99" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P99" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1" t="n"/>
       <c r="B100" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C100" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D100" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E100" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
@@ -6239,27 +6248,27 @@
         <v>2900</v>
       </c>
       <c r="O100" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P100" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C101" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D101" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E101" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F101" t="s">
         <v>18</v>
@@ -6289,25 +6298,25 @@
         <v>14077</v>
       </c>
       <c r="O101" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P101" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1" t="n"/>
       <c r="B102" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C102" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D102" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E102" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F102" t="s">
         <v>18</v>
@@ -6337,22 +6346,22 @@
         <v>8489.85</v>
       </c>
       <c r="O102" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P102" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C103" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D103" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E103" t="s"/>
       <c r="F103" t="s">
@@ -6383,25 +6392,25 @@
         <v>8311.450000000001</v>
       </c>
       <c r="O103" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P103" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1" t="n"/>
       <c r="B104" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C104" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D104" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E104" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F104" t="s">
         <v>18</v>
@@ -6431,25 +6440,25 @@
         <v>6888.49</v>
       </c>
       <c r="O104" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P104" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1" t="n"/>
       <c r="B105" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C105" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D105" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E105" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F105" t="s">
         <v>18</v>
@@ -6479,27 +6488,27 @@
         <v>6867.43</v>
       </c>
       <c r="O105" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P105" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C106" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D106" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E106" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F106" t="s">
         <v>18</v>
@@ -6529,25 +6538,25 @@
         <v>34436.12</v>
       </c>
       <c r="O106" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P106" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1" t="n"/>
       <c r="B107" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C107" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D107" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E107" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F107" t="s">
         <v>18</v>
@@ -6577,25 +6586,25 @@
         <v>24055</v>
       </c>
       <c r="O107" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P107" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1" t="n"/>
       <c r="B108" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C108" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D108" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E108" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F108" t="s">
         <v>18</v>
@@ -6625,25 +6634,25 @@
         <v>12300.36</v>
       </c>
       <c r="O108" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P108" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1" t="n"/>
       <c r="B109" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C109" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D109" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E109" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F109" t="s">
         <v>18</v>
@@ -6673,25 +6682,25 @@
         <v>10742</v>
       </c>
       <c r="O109" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P109" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1" t="n"/>
       <c r="B110" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C110" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D110" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E110" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F110" t="s">
         <v>18</v>
@@ -6721,27 +6730,27 @@
         <v>10433</v>
       </c>
       <c r="O110" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P110" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C111" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D111" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E111" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F111" t="s">
         <v>18</v>
@@ -6771,25 +6780,25 @@
         <v>1747.8</v>
       </c>
       <c r="O111" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P111" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1" t="n"/>
       <c r="B112" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C112" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D112" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E112" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F112" t="s">
         <v>18</v>
@@ -6819,25 +6828,25 @@
         <v>600</v>
       </c>
       <c r="O112" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P112" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1" t="n"/>
       <c r="B113" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C113" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D113" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E113" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F113" t="s">
         <v>18</v>
@@ -6867,25 +6876,25 @@
         <v>300</v>
       </c>
       <c r="O113" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P113" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1" t="n"/>
       <c r="B114" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C114" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D114" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E114" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F114" t="s">
         <v>18</v>
@@ -6915,27 +6924,27 @@
         <v>273.71</v>
       </c>
       <c r="O114" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P114" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C115" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D115" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E115" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F115" t="s">
         <v>18</v>
@@ -6965,25 +6974,25 @@
         <v>39577.08</v>
       </c>
       <c r="O115" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P115" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1" t="n"/>
       <c r="B116" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C116" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D116" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E116" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F116" t="s">
         <v>18</v>
@@ -6998,40 +7007,40 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1381.13</v>
+        <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>2769.65</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>17550</v>
+        <v>15550</v>
       </c>
       <c r="M116" t="n">
         <v>3150</v>
       </c>
       <c r="N116" t="n">
-        <v>24850.78</v>
+        <v>18700</v>
       </c>
       <c r="O116" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P116" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1" t="n"/>
       <c r="B117" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C117" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D117" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E117" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F117" t="s">
         <v>18</v>
@@ -7061,25 +7070,25 @@
         <v>15314.67</v>
       </c>
       <c r="O117" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P117" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1" t="n"/>
       <c r="B118" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C118" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D118" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E118" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F118" t="s">
         <v>18</v>
@@ -7109,25 +7118,25 @@
         <v>14810</v>
       </c>
       <c r="O118" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P118" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1" t="n"/>
       <c r="B119" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C119" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D119" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E119" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F119" t="s">
         <v>18</v>
@@ -7157,27 +7166,27 @@
         <v>14055.33</v>
       </c>
       <c r="O119" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P119" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C120" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D120" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E120" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F120" t="s">
         <v>18</v>
@@ -7207,25 +7216,25 @@
         <v>6798.85</v>
       </c>
       <c r="O120" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P120" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1" t="n"/>
       <c r="B121" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C121" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D121" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E121" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F121" t="s">
         <v>18</v>
@@ -7255,25 +7264,25 @@
         <v>6059.23</v>
       </c>
       <c r="O121" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P121" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1" t="n"/>
       <c r="B122" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C122" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D122" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E122" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F122" t="s">
         <v>18</v>
@@ -7303,25 +7312,25 @@
         <v>4800</v>
       </c>
       <c r="O122" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P122" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1" t="n"/>
       <c r="B123" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C123" t="s">
+        <v>325</v>
+      </c>
+      <c r="D123" t="s">
+        <v>321</v>
+      </c>
+      <c r="E123" t="s">
         <v>322</v>
-      </c>
-      <c r="C123" t="s">
-        <v>322</v>
-      </c>
-      <c r="D123" t="s">
-        <v>318</v>
-      </c>
-      <c r="E123" t="s">
-        <v>319</v>
       </c>
       <c r="F123" t="s">
         <v>18</v>
@@ -7351,25 +7360,25 @@
         <v>4645</v>
       </c>
       <c r="O123" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P123" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1" t="n"/>
       <c r="B124" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C124" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D124" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E124" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F124" t="s">
         <v>18</v>
@@ -7399,27 +7408,27 @@
         <v>4483.32</v>
       </c>
       <c r="O124" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P124" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C125" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D125" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E125" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F125" t="s">
         <v>18</v>
@@ -7449,25 +7458,25 @@
         <v>18972.1</v>
       </c>
       <c r="O125" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P125" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1" t="n"/>
       <c r="B126" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C126" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D126" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E126" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F126" t="s">
         <v>18</v>
@@ -7497,25 +7506,25 @@
         <v>16405.01</v>
       </c>
       <c r="O126" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P126" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1" t="n"/>
       <c r="B127" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C127" t="s">
+        <v>334</v>
+      </c>
+      <c r="D127" t="s">
         <v>331</v>
       </c>
-      <c r="C127" t="s">
-        <v>331</v>
-      </c>
-      <c r="D127" t="s">
-        <v>328</v>
-      </c>
       <c r="E127" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F127" t="s">
         <v>18</v>
@@ -7545,25 +7554,25 @@
         <v>9029.49</v>
       </c>
       <c r="O127" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P127" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1" t="n"/>
       <c r="B128" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C128" t="s">
+        <v>335</v>
+      </c>
+      <c r="D128" t="s">
+        <v>331</v>
+      </c>
+      <c r="E128" t="s">
         <v>332</v>
-      </c>
-      <c r="C128" t="s">
-        <v>332</v>
-      </c>
-      <c r="D128" t="s">
-        <v>328</v>
-      </c>
-      <c r="E128" t="s">
-        <v>329</v>
       </c>
       <c r="F128" t="s">
         <v>18</v>
@@ -7593,25 +7602,25 @@
         <v>7877</v>
       </c>
       <c r="O128" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P128" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1" t="n"/>
       <c r="B129" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C129" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D129" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E129" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F129" t="s">
         <v>18</v>
@@ -7641,27 +7650,27 @@
         <v>5547.5</v>
       </c>
       <c r="O129" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P129" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C130" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D130" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E130" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F130" t="s">
         <v>18</v>
@@ -7691,25 +7700,25 @@
         <v>98930.11</v>
       </c>
       <c r="O130" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P130" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C131" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D131" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E131" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
@@ -7739,25 +7748,25 @@
         <v>67111.10000000001</v>
       </c>
       <c r="O131" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P131" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1" t="n"/>
       <c r="B132" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C132" t="s">
+        <v>342</v>
+      </c>
+      <c r="D132" t="s">
         <v>339</v>
       </c>
-      <c r="C132" t="s">
-        <v>339</v>
-      </c>
-      <c r="D132" t="s">
-        <v>336</v>
-      </c>
       <c r="E132" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F132" t="s">
         <v>18</v>
@@ -7787,25 +7796,25 @@
         <v>58356</v>
       </c>
       <c r="O132" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P132" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1" t="n"/>
       <c r="B133" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C133" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D133" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E133" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F133" t="s">
         <v>18</v>
@@ -7835,25 +7844,25 @@
         <v>42165.41</v>
       </c>
       <c r="O133" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P133" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1" t="n"/>
       <c r="B134" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C134" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D134" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E134" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
@@ -7883,10 +7892,10 @@
         <v>35189.87</v>
       </c>
       <c r="O134" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P134" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
